--- a/DATA/IsoData/WOODIsoData.xlsx
+++ b/DATA/IsoData/WOODIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">adcc407f-0cc0-4727-9687-e971a8c1be4f</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4aaabac1-09ea-4766-9dcc-673dea1aa772</t>
   </si>
   <si>
     <t xml:space="preserve">WOOD.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T171814Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ba3f14f1-608d-4f97-8fa7-83535b78c538</t>
+    <t xml:space="preserve">20210112T164502Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f6c219f7-e5fc-4a26-ad73-85f451d8d471</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WOOD.20190530.1255</t>
@@ -101,7 +107,7 @@
     <t xml:space="preserve">A00000084960</t>
   </si>
   <si>
-    <t xml:space="preserve">03e477f9-9f7c-4065-b91f-f7f81b49f641</t>
+    <t xml:space="preserve">0097356b-8a56-487b-8d5c-362825a7e979</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WOOD.20190626.1344</t>
@@ -113,10 +119,10 @@
     <t xml:space="preserve">A00000087295</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T171627Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b07e7f45-e66c-4501-8c6c-0f5a39bcb713</t>
+    <t xml:space="preserve">20210112T164052Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31947b3f-937a-4391-941e-914ee4a579cf</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WOOD.20190722.1135</t>
@@ -128,10 +134,10 @@
     <t xml:space="preserve">A00000087822</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T174159Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ae75f153-2bff-43da-9e1d-f8b181e4bb4a</t>
+    <t xml:space="preserve">20210112T164026Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5beb3d00-1551-448d-b83e-39c21779d4ca</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WOOD.20190806.1045</t>
@@ -143,10 +149,10 @@
     <t xml:space="preserve">A00000087596</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T174701Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5a8a5903-4bab-49a7-9d97-7e75d6b455b0</t>
+    <t xml:space="preserve">20210112T162303Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e76483ba-d217-4483-8bb7-f0b60f5e8682</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WOOD.20190827.0928</t>
@@ -158,7 +164,7 @@
     <t xml:space="preserve">A00000137532</t>
   </si>
   <si>
-    <t xml:space="preserve">0ef00552-229a-4417-b60f-3b7f80c117e5</t>
+    <t xml:space="preserve">15ca2fb2-3b8e-4cde-8b30-3eced7590f5d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WOOD.20190910.1101</t>
@@ -170,10 +176,10 @@
     <t xml:space="preserve">A00000137721</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T173816Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">332b9dd3-0b7b-422c-aaf9-67881cbd0028</t>
+    <t xml:space="preserve">20210112T161221Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ba801a6e-258d-470c-99d5-d9b6266811ec</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WOOD.20190923.1245</t>
@@ -185,7 +191,7 @@
     <t xml:space="preserve">A00000137655</t>
   </si>
   <si>
-    <t xml:space="preserve">98ce36a3-0b49-41df-aa0d-6c842311dc4f</t>
+    <t xml:space="preserve">bdca8119-092d-441a-8b07-bcb1ed8db6eb</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WOOD.20191008.1227</t>
@@ -197,10 +203,10 @@
     <t xml:space="preserve">A00000137657</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T175146Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50b0fae4-c62a-471b-992a-b624ee66ad1f</t>
+    <t xml:space="preserve">20210112T162157Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d00d0ded-727a-4100-abf2-0715d5b6a6f7</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WOOD.20191029.1129</t>
@@ -212,7 +218,7 @@
     <t xml:space="preserve">A00000050228</t>
   </si>
   <si>
-    <t xml:space="preserve">955d95db-3775-417f-8ecd-971b5f8b6d59</t>
+    <t xml:space="preserve">1ccb3d24-9b08-4ecb-8779-689cbbcea25b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WOOD.20191112.1255</t>
@@ -224,7 +230,52 @@
     <t xml:space="preserve">A00000137873</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T175341Z</t>
+    <t xml:space="preserve">20210112T163646Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dafcc475-a241-4c66-9d87-60eec5273d4f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.WOOD.20200702.1217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.WOOD.20200702.1217.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000237843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T161633Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5d8f2282-6ff1-4561-beb4-25d38389512f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.WOOD.20200713.1456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.WOOD.20200713.1456.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000237914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1de0c611-022a-4e49-8cb5-e9bcc78e8600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.WOOD.20200929.1311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.WOOD.20200929.1311.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000240047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T163136Z</t>
   </si>
 </sst>
 </file>
@@ -562,7 +613,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -616,23 +667,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43557.7340277778</v>
@@ -653,35 +707,38 @@
         <v>0.078</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43640.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43598.8486111111</v>
@@ -702,35 +759,38 @@
         <v>0.123</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43615.7576388889</v>
@@ -751,35 +811,38 @@
         <v>0.066</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43642.7895833333</v>
@@ -800,35 +863,38 @@
         <v>0.098</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43668.6993055556</v>
@@ -849,35 +915,38 @@
         <v>0.234</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43683.6638888889</v>
@@ -898,35 +967,38 @@
         <v>0.032</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43811.7916666667</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43704.6027777778</v>
@@ -947,35 +1019,38 @@
         <v>0.12</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43811.7916666667</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43718.6756944444</v>
@@ -996,35 +1071,38 @@
         <v>0.21</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43811.7916666667</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43731.7409722222</v>
@@ -1045,35 +1123,38 @@
         <v>0.133</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43811.7916666667</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43746.7340277778</v>
@@ -1094,35 +1175,38 @@
         <v>0.157</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43767.6944444444</v>
@@ -1143,17 +1227,176 @@
         <v>0.26</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>43998.8506944444</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>44014.7201388889</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-5.416</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-47.815</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="M13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>44095.75</v>
+      </c>
+      <c r="O13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13"/>
+      <c r="Q13" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>44014.7395833333</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>44025.8305555556</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-8.267</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-51.409</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>44095.75</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14"/>
+      <c r="Q14" t="s">
+        <v>77</v>
+      </c>
+      <c r="R14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>44078.7784722222</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>44103.7576388889</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-9.266</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-70.464</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>44169.7916666667</v>
+      </c>
+      <c r="O15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15" t="s">
+        <v>87</v>
+      </c>
+      <c r="R15" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
